--- a/Products.xlsx
+++ b/Products.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Product Name</t>
   </si>
@@ -129,7 +129,10 @@
     <t>Selling Price</t>
   </si>
   <si>
-    <t>product_catalog</t>
+    <t>Brand Catalog</t>
+  </si>
+  <si>
+    <t>Product Catalog</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,11 +265,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -297,12 +326,50 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -343,9 +410,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="products-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -360,8 +427,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Products" displayName="Products" ref="A1:AJ2" insertRow="1" headerRowDxfId="0">
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Products" displayName="Products" ref="A1:AK2" insertRow="1" headerRowDxfId="1">
+  <tableColumns count="37">
     <tableColumn id="1" name="Product Name"/>
     <tableColumn id="2" name="Product Type"/>
     <tableColumn id="3" name="Product Description"/>
@@ -397,7 +464,8 @@
     <tableColumn id="33" name="Variation 3"/>
     <tableColumn id="34" name="Variation 4"/>
     <tableColumn id="35" name="Selling Price"/>
-    <tableColumn id="36" name="product_catalog"/>
+    <tableColumn id="37" name="Brand Catalog" dataDxfId="0"/>
+    <tableColumn id="36" name="Product Catalog"/>
   </tableColumns>
   <tableStyleInfo name="products-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,11 +672,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI19" sqref="AI19"/>
+      <selection pane="bottomLeft" activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -639,9 +707,10 @@
     <col min="31" max="34" width="13.42578125" customWidth="1"/>
     <col min="35" max="35" width="14.5703125" customWidth="1"/>
     <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="37" max="37" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -747,11 +816,14 @@
       <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -785,20 +857,21 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="6"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="6"/>
     </row>
-    <row r="3" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:37" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB2">
